--- a/records_maps/Capstone Maps/denver-map2019.xlsx
+++ b/records_maps/Capstone Maps/denver-map2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Dropbox/gradschool/CUNYGC/MADH/capstone/Maps and Records/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6FFA7E-EA49-E849-9CB3-5CD2716AA817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC55C95D-2F87-C24C-81E8-0E053EA0A5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="2080" windowWidth="19080" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Mapping!$A$1:$G$34</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t>Rule Type</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>ca_objects.date.dc_dates_type</t>
+  </si>
+  <si>
+    <t>ca_objects.date.datetext</t>
   </si>
 </sst>
 </file>
@@ -754,8 +757,8 @@
   </sheetPr>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,7 +867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -872,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>94</v>
@@ -1153,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>23</v>
       </c>

--- a/records_maps/Capstone Maps/denver-map2019.xlsx
+++ b/records_maps/Capstone Maps/denver-map2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC55C95D-2F87-C24C-81E8-0E053EA0A5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F2CAD3-4E14-3B4B-89E9-A223EF303D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="2080" windowWidth="19080" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="1500" windowWidth="19080" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
   <si>
     <t>Rule Type</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Set to yes to save the data spreadsheet or no to delete it from the server after import</t>
   </si>
   <si>
-    <t>{ "relationshipType": "publisher", "entityType": "org"}</t>
-  </si>
-  <si>
     <t>ca_objects.altID</t>
   </si>
   <si>
@@ -319,6 +316,15 @@
   </si>
   <si>
     <t>ca_objects.date.datetext</t>
+  </si>
+  <si>
+    <t>ca_objects.subtitle</t>
+  </si>
+  <si>
+    <t>{ "relationshipType": "creator", "entityType": "org"}</t>
+  </si>
+  <si>
+    <t>ca_objects.format_text</t>
   </si>
 </sst>
 </file>
@@ -757,8 +763,8 @@
   </sheetPr>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -864,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -875,10 +881,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="34" x14ac:dyDescent="0.2">
@@ -895,24 +901,24 @@
         <v>52</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B8" s="9">
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -929,7 +935,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -946,7 +952,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="68" x14ac:dyDescent="0.2">
@@ -957,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="68" x14ac:dyDescent="0.2">
@@ -974,13 +980,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="68" x14ac:dyDescent="0.2">
@@ -991,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -1053,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>30</v>
@@ -1070,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1095,7 +1101,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1106,7 +1112,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1238,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="16" x14ac:dyDescent="0.2">

--- a/records_maps/Capstone Maps/denver-map2019.xlsx
+++ b/records_maps/Capstone Maps/denver-map2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F2CAD3-4E14-3B4B-89E9-A223EF303D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3188A91-D635-CF4E-983A-0ABDC3AFE592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="1500" windowWidth="19080" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7300" yWindow="3000" windowWidth="19080" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>Rule Type</t>
   </si>
@@ -294,12 +294,6 @@
     <t>ca_objects.subject</t>
   </si>
   <si>
-    <t>listItemSplitter</t>
-  </si>
-  <si>
-    <t>{"delimiter": ",", "relationshipType": "is described by", "list": "zinecatsubject"}</t>
-  </si>
-  <si>
     <t>denver-map2019</t>
   </si>
   <si>
@@ -325,6 +319,9 @@
   </si>
   <si>
     <t>ca_objects.format_text</t>
+  </si>
+  <si>
+    <t>{"delimiter": ","}</t>
   </si>
 </sst>
 </file>
@@ -763,8 +760,8 @@
   </sheetPr>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,7 +770,7 @@
     <col min="2" max="2" width="20.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="30.5" style="9" customWidth="1"/>
     <col min="8" max="10" width="20.1640625" style="9" customWidth="1"/>
@@ -870,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -881,10 +878,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="34" x14ac:dyDescent="0.2">
@@ -901,7 +898,7 @@
         <v>52</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -912,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>86</v>
@@ -955,7 +952,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
@@ -965,14 +962,17 @@
       <c r="C11" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="E11" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F11" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -982,14 +982,17 @@
       <c r="C12" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="E12" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F12" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>1</v>
       </c>
@@ -999,11 +1002,14 @@
       <c r="C13" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="E13" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F13" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -1059,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>30</v>
@@ -1076,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1101,7 +1107,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1112,7 +1118,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
